--- a/src/main/resources/template/template_device_export.xlsx
+++ b/src/main/resources/template/template_device_export.xlsx
@@ -14,120 +14,17 @@
   <sheets>
     <sheet name="Device" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Device!$A$1:$B$1</definedName>
-  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>Serial Number</t>
-  </si>
-  <si>
-    <t>Mã sản phẩm</t>
-  </si>
-  <si>
-    <t>FW</t>
-  </si>
-  <si>
-    <t>MAC</t>
-  </si>
-  <si>
-    <t>IMEI</t>
-  </si>
-  <si>
-    <t>Trạng thái thiết bị</t>
-  </si>
-  <si>
-    <t>Tên khu vực</t>
-  </si>
-  <si>
-    <t>Ngày xuất xưởng</t>
-  </si>
-  <si>
-    <t>Mã phiếu xuất kho</t>
-  </si>
-  <si>
-    <t>Ngày giao hàng</t>
-  </si>
-  <si>
-    <t>Ngày hết hạn bảo hành</t>
-  </si>
-  <si>
-    <t>Ngày xuất kho bảo hành</t>
-  </si>
-  <si>
-    <t>Ngày nhập kho bảo hành</t>
-  </si>
-  <si>
-    <t>Ngày thu hồi thiết bị</t>
-  </si>
-  <si>
-    <t>Mã khách hàng</t>
-  </si>
-  <si>
-    <t>Gói cước</t>
-  </si>
-  <si>
-    <t>Chu kỳ gói cước</t>
-  </si>
-  <si>
-    <t>Ngày bắt đầu gói cước</t>
-  </si>
-  <si>
-    <t>Ngày thanh lý gói cước</t>
-  </si>
-  <si>
-    <t>Ngày tạm ngưng  gói cước</t>
-  </si>
-  <si>
-    <t>Ngày đôi gói cước(rã gói)</t>
-  </si>
-  <si>
-    <t>Trạng thái thuê bao</t>
-  </si>
-  <si>
-    <t>Hợp đồng gốc</t>
-  </si>
-  <si>
-    <t>PO gốc</t>
-  </si>
-  <si>
-    <t>Hợp đồng hiện tại</t>
-  </si>
-  <si>
-    <t>PO hiện tại</t>
-  </si>
-  <si>
-    <t>Đại lý gốc</t>
-  </si>
-  <si>
-    <t>Đại lý hiện tại</t>
-  </si>
-  <si>
-    <t>Mã kho</t>
-  </si>
-  <si>
-    <t>Tên kho</t>
-  </si>
-  <si>
-    <t>Mô tả thêm</t>
-  </si>
-  <si>
-    <t>Mã số kế toàn</t>
-  </si>
-  <si>
-    <t>Số phiếu xuất</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,73 +40,24 @@
       <charset val="163"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-        <bgColor rgb="FFCCCCFF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -220,24 +68,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -546,9 +379,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH1"/>
+  <dimension ref="A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -586,110 +421,10 @@
     <col min="33" max="33" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="4" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="8"/>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
